--- a/paper/documents/log3-28.xlsx
+++ b/paper/documents/log3-28.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="64">
   <si>
     <t>chemotactic Strength With Attract</t>
   </si>
@@ -124,6 +124,93 @@
   </si>
   <si>
     <t xml:space="preserve"> Evolution Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	7.282915066806319E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	3.139189293228855E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	1.717810219791903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	1.7969964684001396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.439069270249316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.717648552478752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	4.111432957507804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	3.214955997699633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	6.459963273608696E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	7.076316293879025E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.1748555830871474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.004996531902381952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.006913723853371447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.006767827453558344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.002402167682071847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.09585732396632657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	4.831997108499272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.007841750016861162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.329261654019308E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	4.228686896167352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.038818230582071886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.2876496840426195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.011604346116833524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.351903547617862E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	4.087818368574845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.074233444234393E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	7.917398581167872E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	6.549418084310735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	8.605243274000269E-4</t>
   </si>
 </sst>
 </file>
@@ -779,10 +866,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>logCsv!$H$2:$H$38</c:f>
+              <c:f>logCsv!$H$2:$H$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>437.36832055357797</c:v>
                 </c:pt>
@@ -893,6 +980,255 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>437.39157242263798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>459.31890518349201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>501.86070720164503</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>462.74342337770702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>437.39157242263798</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>462.74342337770702</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>501.86070720164503</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>501.86070720164503</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>501.86070720164503</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>426.60683793638998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>410.91716251438902</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>501.86070720164503</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>501.86070720164503</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>430.94143993396102</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>501.86070720164503</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>463.96322485975702</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>384.70921010042503</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>354.37948856605698</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>414.63202220791902</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>358.06311299707897</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>373.83650827901897</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>296.98644822057901</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>483.02070649404902</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>380.46130658682199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>447.32809808415499</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>262.29829988347899</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>470.53122468142902</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>370.56134162056998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>427.27656016089401</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>239.21628285752001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>524.88346945727096</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>409.38464754349098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1473,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>logCsv!$A$40</c:f>
+              <c:f>logCsv!$A$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1166,10 +1502,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>logCsv!$B$40:$K$40</c:f>
+              <c:f>logCsv!$B$123:$AK$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>437.36832055357797</c:v>
                 </c:pt>
@@ -1199,6 +1535,84 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>514.42770410734295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>522.77136260134296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>524.88346945727096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,8 +2878,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -2494,8 +2908,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -2816,10 +3230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:AK123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AK123" sqref="AK123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,7 +4070,7 @@
         <v>437.39157242263798</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.48414748144523</v>
       </c>
@@ -3682,7 +4096,7 @@
         <v>459.31890518349201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.68756276808368</v>
       </c>
@@ -3708,7 +4122,7 @@
         <v>301.48058281130199</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.68756276808368</v>
       </c>
@@ -3734,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.68756276808368</v>
       </c>
@@ -3760,7 +4174,7 @@
         <v>437.39157242263798</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.68756276808368</v>
       </c>
@@ -3786,7 +4200,7 @@
         <v>437.39157242263798</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.68756276808368</v>
       </c>
@@ -3812,7 +4226,7 @@
         <v>514.42770410734295</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.68756276808368</v>
       </c>
@@ -3834,40 +4248,2276 @@
       <c r="G39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="H39">
+        <v>437.39157242263798</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.48414748144523</v>
+      </c>
+      <c r="B40">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>459.31890518349201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B41">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>501.86070720164503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.48414748144523</v>
+      </c>
+      <c r="B42">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>462.74342337770702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B43">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>437.39157242263798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.4602413407133701</v>
+      </c>
+      <c r="B44">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.48414748144523</v>
+      </c>
+      <c r="B45">
+        <v>2.9277143435829101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.48414748144523</v>
+      </c>
+      <c r="B46">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>462.74342337770702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B47">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>501.86070720164503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B48">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>501.86070720164503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B49">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>501.86070720164503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B50">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>426.60683793638998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B51">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>410.91716251438902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B52">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>501.86070720164503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B53">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>501.86070720164503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B54">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>430.94143993396102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B55">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B56">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>501.86070720164503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B57">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <v>463.96322485975702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B58">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B59">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3.7579078846075999</v>
+      </c>
+      <c r="B60">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>384.70921010042503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B61">
+        <v>4.1862800146335397</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B62">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B63">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B64">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>354.37948856605698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B65">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B66">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B67">
+        <v>2.5927747861674102</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67">
+        <v>414.63202220791902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B68">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B69">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B70">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B71">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B72">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72">
+        <v>358.06311299707897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4.5850448197275702</v>
+      </c>
+      <c r="B73">
+        <v>2.5372437417584601</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B74">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B75">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.3369081106079399</v>
+      </c>
+      <c r="B76">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B77">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B78">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B79">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B80">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B81">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B82">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B83">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B84">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B85">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3.95146610458657</v>
+      </c>
+      <c r="B86">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86">
+        <v>373.83650827901897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B87">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B88">
+        <v>1.1063583566222299</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B89">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B90">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B91">
+        <v>4.7490366628981402</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91">
+        <v>296.98644822057901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B92">
+        <v>5.7887125061051803</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B93">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B94">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B95">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95">
+        <v>483.02070649404902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B96">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <v>380.46130658682199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B97">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B98">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B99">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99">
+        <v>447.32809808415499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B100">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B101">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B102">
+        <v>4.7285684951791804</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102">
+        <v>262.29829988347899</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B103">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B104">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B105">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B106">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B107">
+        <v>2.9627951011622402</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107">
+        <v>470.53122468142902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B108">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108">
+        <v>370.56134162056998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B109">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B110">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B111">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B112">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B113">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>60</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113">
+        <v>427.27656016089401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B114">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>61</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114">
+        <v>239.21628285752001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B115">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B116">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B117">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B118">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118">
+        <v>522.77136260134296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B119">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C119" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119">
+        <v>524.88346945727096</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B120">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120">
+        <v>514.42770410734295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B121">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121">
+        <v>409.38464754349098</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2.68756276808368</v>
+      </c>
+      <c r="B122">
+        <v>1.34003159844249</v>
+      </c>
+      <c r="C122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B123">
         <v>437.36832055357797</v>
       </c>
-      <c r="C40">
+      <c r="C123">
         <v>437.36832055357797</v>
       </c>
-      <c r="D40">
+      <c r="D123">
         <v>437.36832055357797</v>
       </c>
-      <c r="E40">
+      <c r="E123">
         <v>437.36832055357797</v>
       </c>
-      <c r="F40">
+      <c r="F123">
         <v>437.36832055357797</v>
       </c>
-      <c r="G40">
+      <c r="G123">
         <v>437.36832055357797</v>
       </c>
-      <c r="H40">
+      <c r="H123">
         <v>437.36832055357797</v>
       </c>
-      <c r="I40">
+      <c r="I123">
         <v>437.39157242263798</v>
       </c>
-      <c r="J40">
+      <c r="J123">
         <v>459.31890518349201</v>
       </c>
-      <c r="K40">
+      <c r="K123">
         <v>514.42770410734295</v>
+      </c>
+      <c r="L123">
+        <v>514.42770410734295</v>
+      </c>
+      <c r="M123">
+        <v>514.42770410734295</v>
+      </c>
+      <c r="N123">
+        <v>514.42770410734295</v>
+      </c>
+      <c r="O123">
+        <v>514.42770410734295</v>
+      </c>
+      <c r="P123">
+        <v>514.42770410734295</v>
+      </c>
+      <c r="Q123">
+        <v>514.42770410734295</v>
+      </c>
+      <c r="R123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="S123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="T123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="U123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="V123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="W123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="X123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="Y123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="Z123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AA123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AB123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AC123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AD123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AE123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AF123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AG123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AH123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AI123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AJ123">
+        <v>522.77136260134296</v>
+      </c>
+      <c r="AK123">
+        <v>524.88346945727096</v>
       </c>
     </row>
   </sheetData>
